--- a/variant_24/Задание 18/18.xlsx
+++ b/variant_24/Задание 18/18.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Admin\Desktop\Варианты\13 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -43,12 +38,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -126,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -161,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,7 +340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -346,13 +348,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="10" width="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -735,19 +741,427 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="2">
+        <f t="shared" ref="A13:A20" si="0">A1+MIN(B13,A14)</f>
+        <v>537</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:B20" si="1">B1+MIN(C13,B14)</f>
+        <v>533</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:C20" si="2">C1+MIN(D13,C14)</f>
+        <v>446</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D20" si="3">D1+MIN(E13,D14)</f>
+        <v>437</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E20" si="4">E1+MIN(F13,E14)</f>
+        <v>544</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13:F20" si="5">F1+MIN(G13,F14)</f>
+        <v>461</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:G20" si="6">G1+MIN(H13,G14)</f>
+        <v>444</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13:I20" si="7">H1+MIN(I13,H14)</f>
+        <v>417</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>404</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ref="J13:J20" si="8">J14+J1</f>
+        <v>346</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>519</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>608</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="4"/>
+        <v>456</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="5"/>
+        <v>444</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="6"/>
+        <v>446</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="7"/>
+        <v>422</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" ref="I14:I20" si="9">I2+MIN(J14,I15)</f>
+        <v>412</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="8"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>397</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="4"/>
+        <v>374</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="6"/>
+        <v>418</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="7"/>
+        <v>348</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="9"/>
+        <v>318</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="8"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>427</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="4"/>
+        <v>362</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="6"/>
+        <v>351</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="7"/>
+        <v>372</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="9"/>
+        <v>296</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="8"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="4"/>
+        <v>347</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="5"/>
+        <v>299</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="6"/>
+        <v>286</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="7"/>
+        <v>346</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="9"/>
+        <v>261</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="8"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>381</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="7"/>
+        <v>374</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="9"/>
+        <v>277</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="5"/>
+        <v>278</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="9"/>
+        <v>182</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="9"/>
+        <v>193</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" ref="A21:H21" si="10">A9+MIN(B21,A22)</f>
+        <v>437</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="10"/>
+        <v>394</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="10"/>
+        <v>364</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="10"/>
+        <v>204</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="I21" s="2">
+        <f>I9+MIN(J21,I22)</f>
+        <v>138</v>
+      </c>
+      <c r="J21" s="2">
+        <f>J22+J9</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:H22" si="11">B22+A10</f>
+        <v>468</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="11"/>
+        <v>434</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="11"/>
+        <v>351</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="11"/>
+        <v>320</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="11"/>
+        <v>242</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="11"/>
+        <v>158</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="I22" s="2">
+        <f>J22+I10</f>
+        <v>85</v>
+      </c>
+      <c r="J22" s="2">
+        <f>J10</f>
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
